--- a/model-learning-info.xlsx
+++ b/model-learning-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nato/Documents/Berkeley/Research/Submissions/2020/model-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B9991D-830A-814E-A5FA-DE44626285D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFF068-7D57-0F4A-A29C-111E6D60B07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="460" windowWidth="23680" windowHeight="20540" xr2:uid="{E78DD608-7F74-4E4B-A9E8-DAEE221465A0}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{E78DD608-7F74-4E4B-A9E8-DAEE221465A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t xml:space="preserve">  freq </t>
   </si>
@@ -212,18 +212,12 @@
     <t>vision conditioned sampling based MPC on hexapod</t>
   </si>
   <si>
-    <t>Linear policy</t>
-  </si>
-  <si>
     <t>mpc on dextrous hand task</t>
   </si>
   <si>
     <t>levine2014learning</t>
   </si>
   <si>
-    <t>GP param; expected cost sim rollout</t>
-  </si>
-  <si>
     <t>robot arm swingup</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>model-free control</t>
   </si>
   <si>
-    <t>Stochastic Optimal Control</t>
-  </si>
-  <si>
     <t>4 joint robotic arm (squash)</t>
   </si>
   <si>
@@ -434,9 +425,6 @@
     <t>learning based</t>
   </si>
   <si>
-    <t>GPD</t>
-  </si>
-  <si>
     <t>DDP</t>
   </si>
   <si>
@@ -447,6 +435,36 @@
   </si>
   <si>
     <t>nonlinear</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>NN_GPD</t>
+  </si>
+  <si>
+    <t>GP_cost</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>SAC on PE</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>PETS</t>
+  </si>
+  <si>
+    <t>PETS + sampling NN</t>
+  </si>
+  <si>
+    <t>stoch_opt</t>
   </si>
 </sst>
 </file>
@@ -508,71 +526,7 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -724,6 +678,70 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -780,15 +798,15 @@
     <tableColumn id="3" xr3:uid="{8A51E58D-A720-BD49-8C6D-4CE4765BB15A}" name="model" dataDxfId="11"/>
     <tableColumn id="15" xr3:uid="{191ED0DA-27A2-804F-8F5C-05AC20FA17AD}" name="model_detail" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{ACE9A375-1FDA-6541-9B3C-E2DF323D5763}" name="control" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{138742C8-8E35-F74A-9B4B-4F906FEF899E}" name="control_detail" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{852B0888-21F4-0F4D-8592-7F3501A5A567}" name="state_dim" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{932A66FB-5016-F64E-9DD9-E087635DA3DB}" name="image" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{5ED111BD-479A-F34F-8C31-3B64D44C3813}" name="action_dim" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{57ADA0F0-CDB7-234F-B635-06B1BE09CE40}" name="  freq " dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{FDF279DF-59D3-B342-B9EC-E723F26A4F7F}" name="offline" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5CAD0894-080F-7F41-839E-E09672341A15}" name="year" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{2AC95CED-76CA-8B49-9FBE-438F555F4ABF}" name="comment" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00B57D68-7CE9-B943-A830-92CB2AF2906B}" name="scope" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{138742C8-8E35-F74A-9B4B-4F906FEF899E}" name="control_detail" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{852B0888-21F4-0F4D-8592-7F3501A5A567}" name="state_dim" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{932A66FB-5016-F64E-9DD9-E087635DA3DB}" name="image" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5ED111BD-479A-F34F-8C31-3B64D44C3813}" name="action_dim" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{57ADA0F0-CDB7-234F-B635-06B1BE09CE40}" name="  freq " dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{FDF279DF-59D3-B342-B9EC-E723F26A4F7F}" name="offline" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5CAD0894-080F-7F41-839E-E09672341A15}" name="year" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{2AC95CED-76CA-8B49-9FBE-438F555F4ABF}" name="comment" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00B57D68-7CE9-B943-A830-92CB2AF2906B}" name="scope" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1093,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15F5B3-ED2F-4843-9891-F8AA8E2E3136}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="79" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,59 +1131,59 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" t="s">
-        <v>125</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
         <v>126</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1183,12 +1201,12 @@
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1209,11 +1227,11 @@
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1231,7 +1249,7 @@
         <v>2005</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1240,11 +1258,11 @@
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="b">
@@ -1260,7 +1278,7 @@
         <v>2009</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O5" s="1" t="b">
         <v>1</v>
@@ -1268,12 +1286,12 @@
     </row>
     <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1294,17 +1312,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="H7" s="1">
         <v>12</v>
       </c>
@@ -1331,17 +1351,19 @@
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="H8" s="1">
         <v>25</v>
       </c>
@@ -1357,7 +1379,7 @@
         <v>2012</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O8" s="1"/>
     </row>
@@ -1380,7 +1402,7 @@
         <v>2012</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>1</v>
@@ -1391,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -1399,10 +1421,10 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1421,16 +1443,16 @@
         <v>2012</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>1</v>
@@ -1440,10 +1462,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H11" s="1">
         <v>18</v>
@@ -1462,7 +1484,7 @@
         <v>2012</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -1471,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1496,7 +1518,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1504,7 +1526,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1">
@@ -1524,7 +1546,7 @@
         <v>2014</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -1533,11 +1555,11 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="b">
@@ -1566,27 +1588,27 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M15" s="1">
         <v>2015</v>
@@ -1605,13 +1627,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
@@ -1638,7 +1660,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1663,15 +1685,15 @@
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1">
@@ -1689,7 +1711,7 @@
         <v>2016</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O18" s="1"/>
     </row>
@@ -1698,14 +1720,14 @@
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1726,27 +1748,27 @@
         <v>2016</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H20" s="1">
         <v>47</v>
@@ -1763,14 +1785,14 @@
     </row>
     <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="b">
@@ -1799,14 +1821,14 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1">
         <v>19</v>
@@ -1825,7 +1847,7 @@
         <v>2017</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O22" s="1"/>
     </row>
@@ -1834,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -1842,7 +1864,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1">
@@ -1892,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1917,15 +1939,15 @@
         <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -1950,19 +1972,21 @@
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="H27" s="1">
         <v>2</v>
       </c>
@@ -1980,7 +2004,7 @@
         <v>2017</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O27" s="1"/>
     </row>
@@ -1993,20 +2017,20 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H28" s="1">
         <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J28" s="1">
         <v>6</v>
@@ -2056,17 +2080,29 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="1">
+        <v>17</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1">
+        <v>6</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1">
@@ -2147,20 +2183,20 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H34" s="1">
         <v>40</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J34" s="1">
         <v>24</v>
@@ -2173,7 +2209,7 @@
         <v>2019</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O34" s="1"/>
     </row>
@@ -2186,14 +2222,14 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H35" s="1">
         <v>48</v>
@@ -2221,16 +2257,16 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
@@ -2254,12 +2290,14 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
         <v>12</v>
@@ -2287,13 +2325,13 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
@@ -2311,7 +2349,7 @@
         <v>2019</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O38" s="1"/>
     </row>
@@ -2324,16 +2362,16 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H39" s="1">
         <v>6</v>
@@ -2361,16 +2399,16 @@
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H40" s="1">
         <v>5</v>
@@ -2398,7 +2436,7 @@
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2425,21 +2463,27 @@
         <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" s="1">
+        <v>17</v>
+      </c>
       <c r="I42" s="1"/>
-      <c r="J42" s="1" t="s">
-        <v>7</v>
+      <c r="J42" s="1">
+        <v>6</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2453,17 +2497,29 @@
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="1">
+        <v>17</v>
+      </c>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1">
+        <v>6</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -2477,19 +2533,21 @@
         <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H44" s="1">
         <v>6</v>
       </c>
@@ -2597,12 +2655,12 @@
     </row>
     <row r="49" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2620,14 +2678,14 @@
     </row>
     <row r="50" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
